--- a/onprc_ehr/tools/excelTemplates/Labwork Testnames.xlsx
+++ b/onprc_ehr/tools/excelTemplates/Labwork Testnames.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2245" uniqueCount="585">
   <si>
     <t>Test Id</t>
   </si>
@@ -1759,13 +1759,34 @@
   </si>
   <si>
     <t>10^3/uL</t>
+  </si>
+  <si>
+    <t>PT</t>
+  </si>
+  <si>
+    <t>Partial Thromboplastin Time</t>
+  </si>
+  <si>
+    <t>sec</t>
+  </si>
+  <si>
+    <t>APTT</t>
+  </si>
+  <si>
+    <t>Activated Partial Thromboplastin Time</t>
+  </si>
+  <si>
+    <t>Calcium, ionized</t>
+  </si>
+  <si>
+    <t>Ca, ionized</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1835,6 +1856,11 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1880,7 +1906,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1960,6 +1986,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2262,11 +2292,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J41" sqref="J41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J42" sqref="J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3366,6 +3396,31 @@
       <c r="J41" t="str">
         <f t="shared" si="0"/>
         <v>['A/G Ratio', 'A/G Ratio', null, null, true, false, false, null],</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>584</v>
+      </c>
+      <c r="B42" s="46" t="s">
+        <v>583</v>
+      </c>
+      <c r="C42" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="42"/>
+      <c r="E42" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" t="str">
+        <f t="shared" ref="J42" si="1">"['"&amp;A42&amp;"', '"&amp;B42&amp;"', "&amp;IF(C42 &lt;&gt; "","'"&amp;C42&amp;"'","null")&amp;", "&amp;IF(D42 &lt;&gt; "","'"&amp;D42&amp;"'","null")&amp;", "&amp;E42&amp;", "&amp;F42&amp;", "&amp;G42&amp;", "&amp;IF(H42 &lt;&gt; "",H42,"null")&amp;"],"</f>
+        <v>['Ca, ionized', 'Calcium, ionized', 'mg/dL', null, true, false, true, null],</v>
       </c>
     </row>
   </sheetData>
@@ -5562,17 +5617,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J329"/>
+  <dimension ref="A1:J331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C330" sqref="C330"/>
+      <pane ySplit="1" topLeftCell="A300" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A331" sqref="A331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
     <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
@@ -11401,7 +11456,7 @@
         <v>12</v>
       </c>
       <c r="J323" t="str">
-        <f t="shared" ref="J323:J329" si="5">"['"&amp;A323&amp;"', '"&amp;B323&amp;"', "&amp;IF(C323 &lt;&gt; "","'"&amp;C323&amp;"'","null")&amp;", "&amp;D323&amp;", "&amp;E323&amp;", "&amp;F323&amp;", "&amp;IF(G323 &lt;&gt; "",G323,"null")&amp;"],"</f>
+        <f t="shared" ref="J323:J331" si="5">"['"&amp;A323&amp;"', '"&amp;B323&amp;"', "&amp;IF(C323 &lt;&gt; "","'"&amp;C323&amp;"'","null")&amp;", "&amp;D323&amp;", "&amp;E323&amp;", "&amp;F323&amp;", "&amp;IF(G323 &lt;&gt; "",G323,"null")&amp;"],"</f>
         <v>['WRIGHTS STAIN', '', null, false, false, false, null],</v>
       </c>
     </row>
@@ -11520,6 +11575,51 @@
       <c r="J329" t="str">
         <f t="shared" si="5"/>
         <v>['CSF Lymph', '', '%', false, false, false, null],</v>
+      </c>
+    </row>
+    <row r="330" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>578</v>
+      </c>
+      <c r="B330" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="D330" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E330" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F330" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J330" t="str">
+        <f t="shared" si="5"/>
+        <v>['PT', 'Partial Thromboplastin Time', null, false, false, false, null],</v>
+      </c>
+    </row>
+    <row r="331" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="A331" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="B331" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="C331" s="6" t="s">
+        <v>580</v>
+      </c>
+      <c r="D331" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E331" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F331" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="J331" t="str">
+        <f t="shared" si="5"/>
+        <v>['APTT', 'Activated Partial Thromboplastin Time', 'sec', false, false, false, null],</v>
       </c>
     </row>
   </sheetData>
